--- a/google_finance_currencies_2024-08-05.xlsx
+++ b/google_finance_currencies_2024-08-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,840 +436,1890 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Currency Name</t>
+          <t>Currency Value</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Currency Value</t>
+          <t>From Currency</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>To Currency</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>USD / BRL</t>
+          <t>5,7331</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5,7221</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EUR / BRL</t>
+          <t>6,2792</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6,2686</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GBP / BRL</t>
+          <t>7,3116</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7,2983</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JPY / BRL</t>
+          <t>0,0399</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,0397</t>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AUD / BRL</t>
+          <t>3,7208</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3,7167</t>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>USD / AUD</t>
+          <t>1,5407</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1,5396</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>USD / CAD</t>
+          <t>1,3833</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1,3834</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>USD / CHF</t>
+          <t>0,8511</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,8521</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CHF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>USD / CNY</t>
+          <t>7,1304</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7,1301</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>USD / EUR</t>
+          <t>0,9130</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,9128</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>USD / GBP</t>
+          <t>0,7837</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,7839</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>USD / HKD</t>
+          <t>7,7872</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7,7875</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>USD / INR</t>
+          <t>84,0286</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>83,9931</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>USD / JPY</t>
+          <t>143,7480</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>144,1200</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BRL / EUR</t>
+          <t>0,1593</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,1595</t>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BRL / USD</t>
+          <t>0,1744</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,1748</t>
+          <t>BRL</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CAD / GBP</t>
+          <t>0,5665</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,5666</t>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CAD / USD</t>
+          <t>0,7229</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,7229</t>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CLP / USD</t>
+          <t>0,0010</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,0010</t>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MXN / USD</t>
+          <t>0,0514</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,0518</t>
+          <t>MXN</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PEN / USD</t>
+          <t>0,2675</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,2675</t>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHF / EUR</t>
+          <t>1,0728</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1,0713</t>
+          <t>CHF</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHF / GBP</t>
+          <t>0,9208</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,9200</t>
+          <t>CHF</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHF / USD</t>
+          <t>1,1750</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1,1737</t>
+          <t>CHF</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EUR / CHF</t>
+          <t>0,9322</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,9335</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CHF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EUR / GBP</t>
+          <t>0,8583</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,8587</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EUR / JPY</t>
+          <t>157,4400</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>157,8820</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EUR / USD</t>
+          <t>1,0953</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1,0955</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GBP / CHF</t>
+          <t>1,0861</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1,0870</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CHF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GBP / EUR</t>
+          <t>1,1651</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1,1645</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GBP / USD</t>
+          <t>1,2761</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1,2757</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PLN / USD</t>
+          <t>0,2548</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,2550</t>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RUB / EUR</t>
+          <t>0,0108</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0,0108</t>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RUB / TRY</t>
+          <t>0,3931</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,3926</t>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RUB / USD</t>
+          <t>0,0118</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,0118</t>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TRY / CHF</t>
+          <t>0,0255</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,0256</t>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CHF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TRY / USD</t>
+          <t>0,0300</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,0300</t>
+          <t>TRY</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ZAR / AUD</t>
+          <t>0,0831</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,0832</t>
+          <t>ZAR</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ZAR / USD</t>
+          <t>0,0540</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,0541</t>
+          <t>ZAR</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AUD / CAD</t>
+          <t>0,8979</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,8986</t>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AUD / USD</t>
+          <t>0,6492</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0,6495</t>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CNY / EUR</t>
+          <t>0,1280</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,1280</t>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CNY / GBP</t>
+          <t>0,1099</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0,1099</t>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CNY / SGD</t>
+          <t>0,1858</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0,1857</t>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CNY / USD</t>
+          <t>0,1402</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0,1403</t>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HKD / GBP</t>
+          <t>0,1006</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,1007</t>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HKD / JPY</t>
+          <t>18,4601</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>18,5068</t>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HKD / USD</t>
+          <t>0,1284</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0,1284</t>
+          <t>HKD</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IDR / EUR</t>
+          <t>0,000056</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0,000056</t>
+          <t>IDR</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IDR / JPY</t>
+          <t>0,0089</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0,0089</t>
+          <t>IDR</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>IDR / USD</t>
+          <t>0,000062</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0,000062</t>
+          <t>IDR</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>INR / AUD</t>
+          <t>0,0183</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0,0183</t>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>INR / EUR</t>
+          <t>0,0109</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0,0109</t>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>INR / GBP</t>
+          <t>0,0093</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0,0093</t>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>INR / USD</t>
+          <t>0,0119</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0,0119</t>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>JPY / AUD</t>
+          <t>0,0107</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0,0107</t>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>JPY / CAD</t>
+          <t>0,0096</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0,0096</t>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>JPY / EUR</t>
+          <t>0,0064</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0,0063</t>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>JPY / GBP</t>
+          <t>0,0055</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0,0054</t>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>JPY / SGD</t>
+          <t>0,0092</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0,0092</t>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>JPY / USD</t>
+          <t>0,0070</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0,0069</t>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KRW / EUR</t>
+          <t>0,00067</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0,00067</t>
+          <t>KRW</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>KRW / USD</t>
+          <t>0,00073</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0,00073</t>
+          <t>KRW</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PKR / EUR</t>
+          <t>0,0033</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0,0033</t>
+          <t>PKR</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PKR / USD</t>
+          <t>0,0036</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0,0036</t>
+          <t>PKR</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SGD / EUR</t>
+          <t>0,6893</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0,6893</t>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SGD / USD</t>
+          <t>0,7549</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0,7551</t>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>THB / USD</t>
+          <t>0,0282</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0,0282</t>
+          <t>THB</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TWD / USD</t>
+          <t>0,0306</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0,0306</t>
+          <t>TWD</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>15:55:04</t>
         </is>
       </c>
     </row>

--- a/google_finance_currencies_2024-08-05.xlsx
+++ b/google_finance_currencies_2024-08-05.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2024-08-05" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5,7331</t>
+          <t>5,7395</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,14 +483,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6,2792</t>
+          <t>6,2889</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -510,14 +510,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7,3116</t>
+          <t>7,3298</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -564,14 +564,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3,7208</t>
+          <t>3,7273</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,14 +591,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1,5407</t>
+          <t>1,5398</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -618,14 +618,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1,3833</t>
+          <t>1,3827</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -645,14 +645,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0,8511</t>
+          <t>0,8505</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -672,14 +672,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7,1304</t>
+          <t>7,1293</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -699,14 +699,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0,9130</t>
+          <t>0,9126</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -726,14 +726,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0,7837</t>
+          <t>0,7830</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -753,14 +753,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7,7872</t>
+          <t>7,7887</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -780,14 +780,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>84,0286</t>
+          <t>84,0028</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -807,14 +807,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>143,7480</t>
+          <t>143,7400</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -834,14 +834,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0,1593</t>
+          <t>0,1590</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -861,14 +861,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0,1744</t>
+          <t>0,1742</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -888,14 +888,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0,5665</t>
+          <t>0,5664</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -915,14 +915,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0,7229</t>
+          <t>0,7233</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -942,14 +942,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0,0010</t>
+          <t>0,0011</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -969,14 +969,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0,0514</t>
+          <t>0,0515</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -1023,14 +1023,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1,0728</t>
+          <t>1,0733</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1050,14 +1050,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0,9208</t>
+          <t>0,9209</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1077,14 +1077,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1,1750</t>
+          <t>1,1761</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1104,14 +1104,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0,9322</t>
+          <t>0,9319</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1131,14 +1131,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0,8583</t>
+          <t>0,8580</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1158,14 +1158,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>157,4400</t>
+          <t>157,5030</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1185,14 +1185,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1,0953</t>
+          <t>1,0957</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1212,14 +1212,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1,0861</t>
+          <t>1,0862</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1239,14 +1239,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1,1651</t>
+          <t>1,1655</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1266,14 +1266,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1,2761</t>
+          <t>1,2771</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1293,14 +1293,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0,2548</t>
+          <t>0,2549</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -1347,14 +1347,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0,3931</t>
+          <t>0,3928</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -1455,14 +1455,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0,0831</t>
+          <t>0,0830</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1482,14 +1482,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0,0540</t>
+          <t>0,0539</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1509,14 +1509,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0,8979</t>
+          <t>0,8978</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1536,14 +1536,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0,6492</t>
+          <t>0,6494</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -1590,14 +1590,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0,1099</t>
+          <t>0,1098</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1617,14 +1617,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0,1858</t>
+          <t>0,1859</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1644,14 +1644,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0,1402</t>
+          <t>0,1403</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -1698,14 +1698,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>18,4601</t>
+          <t>18,4660</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1725,14 +1725,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0,1284</t>
+          <t>0,1285</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -1995,14 +1995,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0,0064</t>
+          <t>0,0063</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2022,14 +2022,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0,0055</t>
+          <t>0,0054</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -2211,14 +2211,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0,6893</t>
+          <t>0,6886</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2238,14 +2238,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0,7549</t>
+          <t>0,7545</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15:55:04</t>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>

--- a/google_finance_currencies_2024-08-05.xlsx
+++ b/google_finance_currencies_2024-08-05.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5,7395</t>
+          <t>5,7179</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,14 +483,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6,2889</t>
+          <t>6,2614</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -510,14 +510,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7,3298</t>
+          <t>7,3046</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -537,14 +537,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0,0399</t>
+          <t>0,0397</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -564,14 +564,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3,7273</t>
+          <t>3,7126</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,14 +591,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1,5398</t>
+          <t>1,5401</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -618,14 +618,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1,3827</t>
+          <t>1,3810</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -645,14 +645,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0,8505</t>
+          <t>0,8526</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -672,14 +672,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7,1293</t>
+          <t>7,1290</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -699,14 +699,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0,9126</t>
+          <t>0,9132</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -726,14 +726,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0,7830</t>
+          <t>0,7831</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -753,14 +753,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7,7887</t>
+          <t>7,7859</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -780,14 +780,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>84,0028</t>
+          <t>84,0122</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -807,14 +807,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>143,7400</t>
+          <t>144,1580</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -834,14 +834,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0,1590</t>
+          <t>0,1597</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -861,14 +861,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0,1742</t>
+          <t>0,1749</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -888,14 +888,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0,5664</t>
+          <t>0,5665</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -915,14 +915,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0,7233</t>
+          <t>0,7232</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -969,14 +969,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0,0515</t>
+          <t>0,0517</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -1023,14 +1023,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1,0733</t>
+          <t>1,0710</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1050,14 +1050,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0,9209</t>
+          <t>0,9184</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1077,14 +1077,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1,1761</t>
+          <t>1,1728</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1104,14 +1104,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0,9319</t>
+          <t>0,9335</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1131,14 +1131,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0,8580</t>
+          <t>0,8575</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1158,14 +1158,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>157,5030</t>
+          <t>157,8602</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1185,14 +1185,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1,0957</t>
+          <t>1,0950</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1212,14 +1212,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1,0862</t>
+          <t>1,0890</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1239,14 +1239,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1,1655</t>
+          <t>1,1664</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1266,14 +1266,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1,2771</t>
+          <t>1,2772</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1293,14 +1293,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0,2549</t>
+          <t>0,2546</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -1347,14 +1347,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0,3928</t>
+          <t>0,3931</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -1401,14 +1401,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0,0255</t>
+          <t>0,0256</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -1455,14 +1455,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0,0830</t>
+          <t>0,0832</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1482,14 +1482,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0,0539</t>
+          <t>0,0540</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1509,14 +1509,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0,8978</t>
+          <t>0,8977</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1536,14 +1536,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0,6494</t>
+          <t>0,6493</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1563,14 +1563,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0,1280</t>
+          <t>0,1281</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -1617,14 +1617,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0,1859</t>
+          <t>0,1858</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -1698,14 +1698,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>18,4660</t>
+          <t>18,5160</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1725,14 +1725,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0,1285</t>
+          <t>0,1284</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -2076,14 +2076,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0,0070</t>
+          <t>0,0069</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -2211,14 +2211,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0,6886</t>
+          <t>0,6894</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2238,14 +2238,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0,7545</t>
+          <t>0,7549</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>18:27:30</t>
         </is>
       </c>
     </row>

--- a/google_finance_currencies_2024-08-05.xlsx
+++ b/google_finance_currencies_2024-08-05.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5,7179</t>
+          <t>5,7220</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,14 +483,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6,2614</t>
+          <t>6,2715</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -510,14 +510,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7,3046</t>
+          <t>7,3128</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -537,14 +537,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0,0397</t>
+          <t>0,0398</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -564,14 +564,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3,7126</t>
+          <t>3,7224</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,14 +591,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1,5401</t>
+          <t>1,5372</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -618,14 +618,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1,3810</t>
+          <t>1,3815</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -645,14 +645,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0,8526</t>
+          <t>0,8519</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -672,14 +672,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7,1290</t>
+          <t>7,1285</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -699,14 +699,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0,9132</t>
+          <t>0,9124</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -726,14 +726,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0,7831</t>
+          <t>0,7825</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -753,14 +753,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7,7859</t>
+          <t>7,7872</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -780,14 +780,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>84,0122</t>
+          <t>84,0006</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -807,14 +807,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>144,1580</t>
+          <t>143,8365</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -834,14 +834,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0,1597</t>
+          <t>0,1595</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -861,14 +861,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0,1749</t>
+          <t>0,1748</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -888,14 +888,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0,5665</t>
+          <t>0,5664</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -915,14 +915,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0,7232</t>
+          <t>0,7238</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -942,14 +942,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0,0011</t>
+          <t>0,0010</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -1023,14 +1023,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1,0710</t>
+          <t>1,0709</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1050,14 +1050,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0,9184</t>
+          <t>0,9185</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1077,14 +1077,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1,1728</t>
+          <t>1,1738</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1104,14 +1104,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0,9335</t>
+          <t>0,9338</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1131,14 +1131,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0,8575</t>
+          <t>0,8576</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1158,14 +1158,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>157,8602</t>
+          <t>157,6500</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1185,14 +1185,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1,0950</t>
+          <t>1,0960</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1212,14 +1212,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1,0890</t>
+          <t>1,0887</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1239,14 +1239,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1,1664</t>
+          <t>1,1661</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1266,14 +1266,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1,2772</t>
+          <t>1,2780</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1293,14 +1293,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0,2546</t>
+          <t>0,2548</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1320,14 +1320,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0,0108</t>
+          <t>0,0107</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1347,14 +1347,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0,3931</t>
+          <t>0,3935</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -1401,14 +1401,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0,0256</t>
+          <t>0,0255</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1428,14 +1428,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0,0300</t>
+          <t>0,0299</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1455,14 +1455,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0,0832</t>
+          <t>0,0830</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -1509,14 +1509,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0,8977</t>
+          <t>0,8987</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1536,14 +1536,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0,6493</t>
+          <t>0,6505</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1563,14 +1563,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0,1281</t>
+          <t>0,1280</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -1671,14 +1671,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0,1006</t>
+          <t>0,1005</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1698,14 +1698,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>18,5160</t>
+          <t>18,4684</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -2076,14 +2076,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0,0069</t>
+          <t>0,0070</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -2211,14 +2211,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0,6894</t>
+          <t>0,6889</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2238,14 +2238,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0,7549</t>
+          <t>0,7551</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>18:27:30</t>
+          <t>19:12:16</t>
         </is>
       </c>
     </row>
